--- a/Nota das AC'S.xlsx
+++ b/Nota das AC'S.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25910"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="41" documentId="7_{460A506F-BBCC-5B4E-B19E-6792A0C5DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9049B0BA-F8B5-44F6-913B-1A04B0A204A6}"/>
+  <xr:revisionPtr revIDLastSave="115" documentId="7_{460A506F-BBCC-5B4E-B19E-6792A0C5DF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{717E69C3-CF69-4CDA-A7EA-006313CEF5C4}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Disciplina</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>AC5</t>
+  </si>
+  <si>
+    <t>Menor Nota</t>
+  </si>
+  <si>
+    <t>Média das ACS</t>
+  </si>
+  <si>
+    <t>Média</t>
+  </si>
+  <si>
+    <t>50% AC</t>
+  </si>
+  <si>
+    <t>Falta Nota</t>
+  </si>
+  <si>
+    <t>Nota min/prova</t>
   </si>
   <si>
     <t>Business Intelligence</t>
@@ -99,9 +117,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,6 +136,1055 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média das ACS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="5B9BD5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="FFFFFF"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business Intelligence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Development</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DataOps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estrutura de Dados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5291-49F3-B55B-818F7D2E4702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Média</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business Intelligence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Development</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DataOps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estrutura de Dados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5291-49F3-B55B-818F7D2E4702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Nota min/prova</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha1!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Business Intelligence</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Data Analytics</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Development</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DataOps</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estrutura de Dados</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$L$2:$L$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0.00_);_(* \(#,##0.00\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.625</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5291-49F3-B55B-818F7D2E4702}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="81"/>
+        <c:overlap val="-27"/>
+        <c:axId val="327470983"/>
+        <c:axId val="776432903"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="327470983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="776432903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="776432903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="327470983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F09405E-96EF-A29A-39A0-A696E68CE0CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -416,19 +1484,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC65782C-95AF-504B-B35C-8E305E420FA6}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L1" activeCellId="2" sqref="A1:A6 H1:I6 L1:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -447,10 +1517,28 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>8</v>
@@ -467,10 +1555,33 @@
       <c r="F2" s="1">
         <v>6</v>
       </c>
+      <c r="G2" s="1">
+        <f>SMALL(B2:F2,1)</f>
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <f>(SUM(B2:F2)-G2)/4</f>
+        <v>7.75</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <f>H2*50%</f>
+        <v>3.875</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2-J2</f>
+        <v>2.125</v>
+      </c>
+      <c r="L2" s="1">
+        <f>K2/50%</f>
+        <v>4.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -487,10 +1598,33 @@
       <c r="F3" s="1">
         <v>9.5</v>
       </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G6" si="0">SMALL(B3:F3,1)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H6" si="1">(SUM(B3:F3)-G3)/4</f>
+        <v>8.25</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J6" si="2">H3*50%</f>
+        <v>4.125</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K6" si="3">I3-J3</f>
+        <v>1.875</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L6" si="4">K3/50%</f>
+        <v>3.75</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>7.5</v>
@@ -507,10 +1641,33 @@
       <c r="F4" s="1">
         <v>4</v>
       </c>
+      <c r="G4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="2"/>
+        <v>3.5</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -527,10 +1684,33 @@
       <c r="F5" s="1">
         <v>5</v>
       </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="1"/>
+        <v>5.375</v>
+      </c>
+      <c r="I5" s="1">
+        <v>6</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6875</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="3"/>
+        <v>3.3125</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="4"/>
+        <v>6.625</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -546,9 +1726,33 @@
       </c>
       <c r="F6" s="1">
         <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>2.5</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="3"/>
+        <v>3.5</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>